--- a/Doxygen/Integration/figures.xlsx
+++ b/Doxygen/Integration/figures.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianpa\Documents\GitHub\sage-docs\Doxygen\Integration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian\Documents\GitHub\sage-docs\Doxygen\Integration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BDFE89-49E8-4E70-BEF3-FC8A59E3FA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6009B50B-38A9-486F-B363-F14BB07405A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13000" yWindow="3810" windowWidth="20500" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13005" yWindow="3810" windowWidth="20505" windowHeight="15375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
     <t>Velocity</t>
   </si>
@@ -33,13 +35,23 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Displacment</t>
+    <t>Accel.</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Displacement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -65,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,13 +85,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -97,6 +133,3535 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Displacement</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>107.79999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>117.59999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>127.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>137.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>156.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>166.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>176.40000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>186.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>196.00000000000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>205.80000000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>215.60000000000008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>225.40000000000009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>235.2000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>245.00000000000011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>254.80000000000013</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>264.60000000000014</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>274.40000000000015</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>284.20000000000016</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>294.00000000000017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-757B-40FF-A189-CAE5D2730BB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-27"/>
+        <c:axId val="480832096"/>
+        <c:axId val="480836688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="480832096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frame Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480836688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="480836688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Change in Position</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480832096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$5:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$D$5:$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44.100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46.550000000000011</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>51.450000000000017</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53.90000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56.350000000000023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>58.800000000000026</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>61.250000000000028</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.700000000000031</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>66.150000000000034</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>68.600000000000037</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>71.05000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>73.500000000000043</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>75.950000000000045</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>78.400000000000048</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>80.850000000000051</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>83.300000000000054</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>85.750000000000057</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>88.20000000000006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>90.650000000000063</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>93.100000000000065</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>95.550000000000068</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>98.000000000000071</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>100.45000000000007</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>102.90000000000008</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>105.35000000000008</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>107.80000000000008</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>110.25000000000009</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>112.70000000000009</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>115.15000000000009</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>117.60000000000009</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>120.0500000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>122.5000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>124.9500000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>127.40000000000011</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>129.85000000000011</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>132.3000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>134.75000000000009</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>137.20000000000007</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>139.65000000000006</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>142.10000000000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>144.55000000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>147.00000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F5C3-47D1-A5C6-2585C635B8AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-27"/>
+        <c:axId val="480832096"/>
+        <c:axId val="480836688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="480832096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frame Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480836688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="480836688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Change in Position</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480832096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Displacement</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (3)'!$B$5:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (3)'!$D$5:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>107.79999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>117.59999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>127.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>137.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>156.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>166.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>176.40000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>186.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>196.00000000000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>205.80000000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>215.60000000000008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>225.40000000000009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>235.2000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>245.00000000000011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>254.80000000000013</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>264.60000000000014</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>274.40000000000015</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>284.20000000000016</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>294.00000000000017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BCB7-472C-BC5D-93AAFA353EF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="480832096"/>
+        <c:axId val="480836688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="480832096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frame Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480836688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="480836688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Change in Position</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480832096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E8E872-5C8A-4B7F-A843-EF183AF1D95C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27CFBF7B-BB60-4ACB-ADAC-F3A8412D9914}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A0424C-3633-491F-9FA0-F83399D4F4B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,30 +3927,1876 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D2"/>
+  <dimension ref="B1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="9.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <f>C5*$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <f>B5+1</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <f>C5+$C$1*$C$2</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" ref="D6:D34" si="0">C6*$C$2</f>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <f t="shared" ref="B7:B33" si="1">B6+1</f>
         <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <f>C6+$C$1*$C$2</f>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" ref="C8:C33" si="2">C7+$C$1*$C$2</f>
+        <v>29.400000000000002</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>29.400000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="2"/>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="2"/>
+        <v>58.8</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="2"/>
+        <v>68.599999999999994</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>68.599999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="2"/>
+        <v>78.399999999999991</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>78.399999999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="2"/>
+        <v>88.199999999999989</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>88.199999999999989</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="2"/>
+        <v>97.999999999999986</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>97.999999999999986</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="2"/>
+        <v>107.79999999999998</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>107.79999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="2"/>
+        <v>117.59999999999998</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>117.59999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="2"/>
+        <v>127.39999999999998</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>127.39999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="2"/>
+        <v>137.19999999999999</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>137.19999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="2"/>
+        <v>156.80000000000001</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>156.80000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="2"/>
+        <v>166.60000000000002</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>166.60000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="2"/>
+        <v>176.40000000000003</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>176.40000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="2"/>
+        <v>186.20000000000005</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>186.20000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="2"/>
+        <v>196.00000000000006</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>196.00000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="2"/>
+        <v>205.80000000000007</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>205.80000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="2"/>
+        <v>215.60000000000008</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>215.60000000000008</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="2"/>
+        <v>225.40000000000009</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>225.40000000000009</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="2"/>
+        <v>235.2000000000001</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>235.2000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="2"/>
+        <v>245.00000000000011</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>245.00000000000011</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" si="2"/>
+        <v>254.80000000000013</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="0"/>
+        <v>254.80000000000013</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="2"/>
+        <v>264.60000000000014</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="0"/>
+        <v>264.60000000000014</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="2"/>
+        <v>274.40000000000015</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="0"/>
+        <v>274.40000000000015</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <f t="shared" ref="B34:B35" si="3">B33+1</f>
+        <v>29</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" ref="C34:C35" si="4">C33+$C$1*$C$2</f>
+        <v>284.20000000000016</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="0"/>
+        <v>284.20000000000016</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="4"/>
+        <v>294.00000000000017</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" ref="D35" si="5">C35*$C$2</f>
+        <v>294.00000000000017</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="6">
+        <f>SUM(D5:D35)</f>
+        <v>4557.0000000000009</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83299C4-71E3-4FD6-AA3F-6F8323185F6A}">
+  <dimension ref="B1:D66"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="9.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <f>C5*$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <f>B5+0.5</f>
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="4">
+        <f>C5+$C$1*$C$2</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" ref="D6:D35" si="0">C6*$C$2</f>
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <f t="shared" ref="B7:B65" si="1">B6+0.5</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <f>C6+$C$1*$C$2</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" ref="C8:C65" si="2">C7+$C$1*$C$2</f>
+        <v>14.700000000000001</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>7.3500000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="2"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="2"/>
+        <v>24.5</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="2"/>
+        <v>29.4</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="2"/>
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>17.149999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="2"/>
+        <v>39.199999999999996</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>19.599999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="2"/>
+        <v>44.099999999999994</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>22.049999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="2"/>
+        <v>48.999999999999993</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>24.499999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="2"/>
+        <v>53.899999999999991</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>26.949999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="2"/>
+        <v>58.79999999999999</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>29.399999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="2"/>
+        <v>63.699999999999989</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>31.849999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="2"/>
+        <v>68.599999999999994</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="2"/>
+        <v>73.5</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>36.75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="2"/>
+        <v>78.400000000000006</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="5">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="2"/>
+        <v>83.300000000000011</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>41.650000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="2"/>
+        <v>88.200000000000017</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>44.100000000000009</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="5">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="2"/>
+        <v>93.100000000000023</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>46.550000000000011</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="2"/>
+        <v>98.000000000000028</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>49.000000000000014</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="2"/>
+        <v>102.90000000000003</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>51.450000000000017</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="2"/>
+        <v>107.80000000000004</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>53.90000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="2"/>
+        <v>112.70000000000005</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>56.350000000000023</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="2"/>
+        <v>117.60000000000005</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>58.800000000000026</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="5">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="2"/>
+        <v>122.50000000000006</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>61.250000000000028</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" si="2"/>
+        <v>127.40000000000006</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="0"/>
+        <v>63.700000000000031</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="2"/>
+        <v>132.30000000000007</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="0"/>
+        <v>66.150000000000034</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="2"/>
+        <v>137.20000000000007</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="0"/>
+        <v>68.600000000000037</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="5">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="2"/>
+        <v>142.10000000000008</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="0"/>
+        <v>71.05000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="2"/>
+        <v>147.00000000000009</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="0"/>
+        <v>73.500000000000043</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="5">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" si="2"/>
+        <v>151.90000000000009</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" ref="D36:D65" si="3">C36*$C$2</f>
+        <v>75.950000000000045</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C37" s="4">
+        <f t="shared" si="2"/>
+        <v>156.8000000000001</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="3"/>
+        <v>78.400000000000048</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="5">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" si="2"/>
+        <v>161.7000000000001</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="3"/>
+        <v>80.850000000000051</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="5">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C39" s="4">
+        <f t="shared" si="2"/>
+        <v>166.60000000000011</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="3"/>
+        <v>83.300000000000054</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="5">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" si="2"/>
+        <v>171.50000000000011</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="3"/>
+        <v>85.750000000000057</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C41" s="4">
+        <f t="shared" si="2"/>
+        <v>176.40000000000012</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="3"/>
+        <v>88.20000000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="5">
+        <f t="shared" si="1"/>
+        <v>18.5</v>
+      </c>
+      <c r="C42" s="4">
+        <f t="shared" si="2"/>
+        <v>181.30000000000013</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" si="3"/>
+        <v>90.650000000000063</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="5">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C43" s="4">
+        <f t="shared" si="2"/>
+        <v>186.20000000000013</v>
+      </c>
+      <c r="D43" s="4">
+        <f t="shared" si="3"/>
+        <v>93.100000000000065</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="5">
+        <f t="shared" si="1"/>
+        <v>19.5</v>
+      </c>
+      <c r="C44" s="4">
+        <f t="shared" si="2"/>
+        <v>191.10000000000014</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" si="3"/>
+        <v>95.550000000000068</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C45" s="4">
+        <f t="shared" si="2"/>
+        <v>196.00000000000014</v>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" si="3"/>
+        <v>98.000000000000071</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="5">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="C46" s="4">
+        <f t="shared" si="2"/>
+        <v>200.90000000000015</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" si="3"/>
+        <v>100.45000000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="5">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C47" s="4">
+        <f t="shared" si="2"/>
+        <v>205.80000000000015</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" si="3"/>
+        <v>102.90000000000008</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="5">
+        <f t="shared" si="1"/>
+        <v>21.5</v>
+      </c>
+      <c r="C48" s="4">
+        <f t="shared" si="2"/>
+        <v>210.70000000000016</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" si="3"/>
+        <v>105.35000000000008</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="5">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C49" s="4">
+        <f t="shared" si="2"/>
+        <v>215.60000000000016</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="3"/>
+        <v>107.80000000000008</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="5">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" si="2"/>
+        <v>220.50000000000017</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="3"/>
+        <v>110.25000000000009</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="5">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C51" s="4">
+        <f t="shared" si="2"/>
+        <v>225.40000000000018</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="3"/>
+        <v>112.70000000000009</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="5">
+        <f t="shared" si="1"/>
+        <v>23.5</v>
+      </c>
+      <c r="C52" s="4">
+        <f t="shared" si="2"/>
+        <v>230.30000000000018</v>
+      </c>
+      <c r="D52" s="4">
+        <f t="shared" si="3"/>
+        <v>115.15000000000009</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="5">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C53" s="4">
+        <f t="shared" si="2"/>
+        <v>235.20000000000019</v>
+      </c>
+      <c r="D53" s="4">
+        <f t="shared" si="3"/>
+        <v>117.60000000000009</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="5">
+        <f t="shared" si="1"/>
+        <v>24.5</v>
+      </c>
+      <c r="C54" s="4">
+        <f t="shared" si="2"/>
+        <v>240.10000000000019</v>
+      </c>
+      <c r="D54" s="4">
+        <f t="shared" si="3"/>
+        <v>120.0500000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="5">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C55" s="4">
+        <f t="shared" si="2"/>
+        <v>245.0000000000002</v>
+      </c>
+      <c r="D55" s="4">
+        <f t="shared" si="3"/>
+        <v>122.5000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="5">
+        <f t="shared" si="1"/>
+        <v>25.5</v>
+      </c>
+      <c r="C56" s="4">
+        <f t="shared" si="2"/>
+        <v>249.9000000000002</v>
+      </c>
+      <c r="D56" s="4">
+        <f t="shared" si="3"/>
+        <v>124.9500000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="5">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C57" s="4">
+        <f t="shared" si="2"/>
+        <v>254.80000000000021</v>
+      </c>
+      <c r="D57" s="4">
+        <f t="shared" si="3"/>
+        <v>127.40000000000011</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="5">
+        <f t="shared" si="1"/>
+        <v>26.5</v>
+      </c>
+      <c r="C58" s="4">
+        <f t="shared" si="2"/>
+        <v>259.70000000000022</v>
+      </c>
+      <c r="D58" s="4">
+        <f t="shared" si="3"/>
+        <v>129.85000000000011</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="5">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="C59" s="4">
+        <f t="shared" si="2"/>
+        <v>264.60000000000019</v>
+      </c>
+      <c r="D59" s="4">
+        <f t="shared" si="3"/>
+        <v>132.3000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="5">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
+      <c r="C60" s="4">
+        <f t="shared" si="2"/>
+        <v>269.50000000000017</v>
+      </c>
+      <c r="D60" s="4">
+        <f t="shared" si="3"/>
+        <v>134.75000000000009</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="5">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="C61" s="4">
+        <f t="shared" si="2"/>
+        <v>274.40000000000015</v>
+      </c>
+      <c r="D61" s="4">
+        <f t="shared" si="3"/>
+        <v>137.20000000000007</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="5">
+        <f t="shared" si="1"/>
+        <v>28.5</v>
+      </c>
+      <c r="C62" s="4">
+        <f t="shared" si="2"/>
+        <v>279.30000000000013</v>
+      </c>
+      <c r="D62" s="4">
+        <f t="shared" si="3"/>
+        <v>139.65000000000006</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="5">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C63" s="4">
+        <f t="shared" si="2"/>
+        <v>284.2000000000001</v>
+      </c>
+      <c r="D63" s="4">
+        <f t="shared" si="3"/>
+        <v>142.10000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="5">
+        <f t="shared" si="1"/>
+        <v>29.5</v>
+      </c>
+      <c r="C64" s="4">
+        <f t="shared" si="2"/>
+        <v>289.10000000000008</v>
+      </c>
+      <c r="D64" s="4">
+        <f t="shared" si="3"/>
+        <v>144.55000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="5">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C65" s="4">
+        <f t="shared" si="2"/>
+        <v>294.00000000000006</v>
+      </c>
+      <c r="D65" s="4">
+        <f t="shared" si="3"/>
+        <v>147.00000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="4"/>
+      <c r="D66" s="6">
+        <f>SUM(D5:D65)</f>
+        <v>4483.5000000000027</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C354E6-159F-4E6C-8057-73B638F531AC}">
+  <dimension ref="B1:D35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="9.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <f>C5*$C$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <f>B5+1</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <f>C5+$C$1*$C$2</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" ref="D6:D35" si="0">C6*$C$2</f>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <f t="shared" ref="B7:B35" si="1">B6+1</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <f>C6+$C$1*$C$2</f>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" ref="C8:C35" si="2">C7+$C$1*$C$2</f>
+        <v>29.400000000000002</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>29.400000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="2"/>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="2"/>
+        <v>58.8</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="2"/>
+        <v>68.599999999999994</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>68.599999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="2"/>
+        <v>78.399999999999991</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>78.399999999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="2"/>
+        <v>88.199999999999989</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>88.199999999999989</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="2"/>
+        <v>97.999999999999986</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>97.999999999999986</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="2"/>
+        <v>107.79999999999998</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>107.79999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="2"/>
+        <v>117.59999999999998</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>117.59999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="2"/>
+        <v>127.39999999999998</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>127.39999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="2"/>
+        <v>137.19999999999999</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>137.19999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="2"/>
+        <v>156.80000000000001</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>156.80000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="2"/>
+        <v>166.60000000000002</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>166.60000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="2"/>
+        <v>176.40000000000003</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>176.40000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="2"/>
+        <v>186.20000000000005</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>186.20000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="2"/>
+        <v>196.00000000000006</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>196.00000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="2"/>
+        <v>205.80000000000007</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>205.80000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="2"/>
+        <v>215.60000000000008</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>215.60000000000008</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="2"/>
+        <v>225.40000000000009</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>225.40000000000009</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="2"/>
+        <v>235.2000000000001</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>235.2000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="2"/>
+        <v>245.00000000000011</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>245.00000000000011</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" si="2"/>
+        <v>254.80000000000013</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="0"/>
+        <v>254.80000000000013</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="2"/>
+        <v>264.60000000000014</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="0"/>
+        <v>264.60000000000014</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="2"/>
+        <v>274.40000000000015</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="0"/>
+        <v>274.40000000000015</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="2"/>
+        <v>284.20000000000016</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="0"/>
+        <v>284.20000000000016</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="2"/>
+        <v>294.00000000000017</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="0"/>
+        <v>294.00000000000017</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>